--- a/SimuDigitalTwin/Classeur1.xlsx
+++ b/SimuDigitalTwin/Classeur1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xoxox\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\école\GE4\PRG_GE2_HC\SimuDigitalTwin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E43A8E8-A7B8-42B4-ABE0-044B0B7F0AD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF9460D2-609D-41FB-AD13-0E2AA4A42831}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{C17D422A-3BF4-458B-B68C-929C272823DE}"/>
   </bookViews>
@@ -380,99 +380,99 @@
   <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12">
-        <v>4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13">
-        <v>4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
